--- a/D2_NORMALISATIE/normalisatie.xlsx
+++ b/D2_NORMALISATIE/normalisatie.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentkdg-my.sharepoint.com/personal/maxim_derboven_student_kdg_be/Documents/2de jaar/Databanken 2/Groeiproject - Maxim Derboven/D2_NORMALISATIE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="945" documentId="8_{3B17064A-7384-41DA-BCC3-055B42F18884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9270725-AB30-40D8-A248-0E81F872A023}"/>
+  <xr:revisionPtr revIDLastSave="1264" documentId="8_{3B17064A-7384-41DA-BCC3-055B42F18884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B985A63-A10C-4350-BC8D-4C37D5C744B8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{245E172B-9DB5-4E02-9C4B-E47BEB4001E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalisatie" sheetId="3" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Normalisatie!$A$1:$F$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Normalisatie!$A$1:$F$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="86">
   <si>
     <t>email</t>
   </si>
@@ -257,6 +258,45 @@
   </si>
   <si>
     <t>TICKET</t>
+  </si>
+  <si>
+    <t>viewer_zipcode</t>
+  </si>
+  <si>
+    <t>theather_zipcode</t>
+  </si>
+  <si>
+    <t>theather_location_zipcode</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>viewer_countrycode</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>theather_countrycode</t>
+  </si>
+  <si>
+    <t>HALL</t>
+  </si>
+  <si>
+    <t>PERFORMANCE</t>
+  </si>
+  <si>
+    <t>performance_id</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>TICKETS</t>
   </si>
 </sst>
 </file>
@@ -343,7 +383,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -461,11 +501,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,6 +702,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -850,10 +1105,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,6 +1139,1200 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="55"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="60"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="47"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="44"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="49"/>
+      <c r="F27" s="55"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="56"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="47"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="F38" s="55"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="59"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="55"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9"/>
+      <c r="B44" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="65"/>
+      <c r="B45" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="44"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="65"/>
+      <c r="B46" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="44"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="44"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="65"/>
+      <c r="B48" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="30"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="52"/>
+      <c r="F49" s="55"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="9"/>
+      <c r="C50" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="9"/>
+      <c r="C51" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="44"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="C52" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="60"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="9"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="44"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="9"/>
+      <c r="B54" s="30"/>
+      <c r="D54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="9"/>
+      <c r="B55" s="30"/>
+      <c r="D55" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="61"/>
+      <c r="F55" s="62"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="9"/>
+      <c r="B56" s="30"/>
+      <c r="D56" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="57"/>
+      <c r="F56" s="29"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="9"/>
+      <c r="B57" s="30"/>
+      <c r="D57" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="63"/>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="9"/>
+      <c r="B58" s="6"/>
+      <c r="D58" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="64"/>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="9"/>
+      <c r="B59" s="6"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="29"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="9"/>
+      <c r="D60" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="32"/>
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="9"/>
+      <c r="B61" s="6"/>
+      <c r="D61" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="32"/>
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="9"/>
+      <c r="B62" s="6"/>
+      <c r="D62" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="32"/>
+      <c r="F62" s="27"/>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="9"/>
+      <c r="B63" s="6"/>
+      <c r="D63" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="9"/>
+      <c r="B64" s="6"/>
+      <c r="D64" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="31"/>
+      <c r="F64" s="29"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="9"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="9"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="9"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="31"/>
+      <c r="F67" s="29"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="9"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="31"/>
+      <c r="F68" s="29"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="9"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="32"/>
+      <c r="F69" s="29"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="29"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="29"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="9"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="29"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="9"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="29"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="6"/>
+      <c r="C74" s="9"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="29"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="29"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="29"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="29"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="6"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="29"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="6"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="29"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D80" s="31"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D81" s="31"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="29"/>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D82" s="31"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D83" s="31"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="29"/>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="29"/>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="29"/>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="29"/>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="29"/>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="29"/>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D91" s="6"/>
+      <c r="F91" s="29"/>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D92" s="6"/>
+      <c r="F92" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD973E38-6444-404B-88CE-41136C0FE550}">
+  <dimension ref="A1:F90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D65" sqref="D65:D77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -901,7 +2350,7 @@
       </c>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -921,7 +2370,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
@@ -939,7 +2388,7 @@
       </c>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -957,7 +2406,7 @@
       </c>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -975,7 +2424,7 @@
       </c>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -993,7 +2442,7 @@
       </c>
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -1011,7 +2460,7 @@
       </c>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
@@ -1029,7 +2478,7 @@
       </c>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -1048,9 +2497,8 @@
       <c r="F10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -1069,9 +2517,8 @@
       <c r="F11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>54</v>
       </c>
@@ -1085,7 +2532,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="24"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -1101,7 +2548,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
@@ -1119,7 +2566,7 @@
       </c>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>61</v>
       </c>
@@ -1137,7 +2584,7 @@
       </c>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>43</v>
       </c>
@@ -1153,7 +2600,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>44</v>
       </c>
@@ -1173,7 +2620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>45</v>
       </c>
@@ -1191,7 +2638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>46</v>
       </c>
@@ -1209,7 +2656,7 @@
       </c>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -1227,7 +2674,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>48</v>
       </c>
@@ -1241,7 +2688,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>49</v>
       </c>
@@ -1261,7 +2708,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>50</v>
       </c>
@@ -1279,11 +2726,13 @@
       </c>
       <c r="F23" s="26"/>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" s="11" t="s">
         <v>47</v>
       </c>
@@ -1295,12 +2744,12 @@
       </c>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>9</v>
+      <c r="B25" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>48</v>
@@ -1313,12 +2762,12 @@
       </c>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>61</v>
+      <c r="B26" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>63</v>
@@ -1331,12 +2780,12 @@
       </c>
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>63</v>
+      <c r="B27" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -1347,12 +2796,12 @@
       </c>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>9</v>
@@ -1365,13 +2814,10 @@
       </c>
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="C29" s="10" t="s">
         <v>61</v>
       </c>
@@ -1385,12 +2831,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>63</v>
@@ -1399,12 +2842,9 @@
       <c r="E30" s="13"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="7" t="s">
@@ -1417,13 +2857,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="C32" s="10" t="s">
         <v>63</v>
       </c>
@@ -1435,7 +2872,7 @@
       </c>
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>22</v>
       </c>
@@ -1451,7 +2888,7 @@
       </c>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>55</v>
       </c>
@@ -1471,7 +2908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>56</v>
       </c>
@@ -1491,7 +2928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>57</v>
       </c>
@@ -1505,7 +2942,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>58</v>
       </c>
@@ -1525,7 +2962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
@@ -1543,7 +2980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>60</v>
       </c>
@@ -1561,7 +2998,7 @@
       </c>
       <c r="F39" s="22"/>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="11" t="s">
         <v>20</v>
@@ -1573,7 +3010,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
@@ -1589,7 +3026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
         <v>9</v>
@@ -1605,7 +3042,7 @@
       </c>
       <c r="F42" s="22"/>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9"/>
       <c r="B43" s="10" t="s">
         <v>61</v>
@@ -1615,7 +3052,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
         <v>63</v>
@@ -1629,7 +3066,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
         <v>28</v>
@@ -1643,7 +3080,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>62</v>
@@ -1657,7 +3094,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="19"/>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="11" t="s">
         <v>56</v>
@@ -1669,7 +3106,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="19"/>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="11" t="s">
         <v>57</v>
@@ -1683,7 +3120,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="11" t="s">
         <v>58</v>
@@ -1695,7 +3132,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="11" t="s">
         <v>59</v>
@@ -1709,7 +3146,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="11" t="s">
         <v>60</v>
@@ -1723,7 +3160,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="11"/>
       <c r="C52" s="10" t="s">
@@ -1732,7 +3169,7 @@
       <c r="D52" s="15"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
         <v>9</v>
@@ -1750,7 +3187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
         <v>61</v>
@@ -1766,7 +3203,7 @@
       </c>
       <c r="F54" s="21"/>
     </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="10" t="s">
         <v>63</v>
@@ -1780,7 +3217,7 @@
       </c>
       <c r="F55" s="21"/>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
         <v>28</v>
@@ -1796,7 +3233,7 @@
       </c>
       <c r="F56" s="21"/>
     </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -1814,7 +3251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>62</v>
@@ -1826,7 +3263,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="19"/>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="11" t="s">
         <v>26</v>
@@ -1840,7 +3277,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="11" t="s">
         <v>22</v>
@@ -1854,7 +3291,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="11" t="s">
         <v>55</v>
@@ -1868,7 +3305,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="19"/>
     </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="6"/>
       <c r="C62" s="11"/>
@@ -1878,7 +3315,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="6"/>
       <c r="C63" s="10" t="s">
@@ -1890,7 +3327,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="27"/>
     </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="6"/>
       <c r="C64" s="10" t="s">
@@ -1900,7 +3337,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="19"/>
     </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="6"/>
       <c r="C65" s="10" t="s">
@@ -1912,7 +3349,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="6"/>
       <c r="C66" s="10" t="s">
@@ -1923,9 +3360,8 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="19"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="6"/>
       <c r="C67" s="10" t="s">
@@ -1937,7 +3373,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="6"/>
       <c r="C68" s="10" t="s">
@@ -1949,7 +3385,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="19"/>
     </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9"/>
       <c r="B69" s="6"/>
       <c r="C69" s="14"/>
@@ -1959,7 +3395,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="6"/>
       <c r="C70" s="10" t="s">
@@ -1971,7 +3407,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="19"/>
     </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="10" t="s">
@@ -1981,7 +3417,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="19"/>
     </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="11" t="s">
@@ -1993,7 +3429,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="19"/>
     </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="11" t="s">
@@ -2005,7 +3441,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="6"/>
       <c r="C74" s="11" t="s">
         <v>55</v>
@@ -2016,14 +3452,14 @@
       <c r="E74" s="13"/>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
       <c r="C75" s="11"/>
       <c r="D75" s="15"/>
       <c r="E75" s="13"/>
       <c r="F75" s="19"/>
     </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="6"/>
       <c r="D76" s="15" t="s">
         <v>59</v>
@@ -2031,7 +3467,7 @@
       <c r="E76" s="13"/>
       <c r="F76" s="19"/>
     </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
       <c r="D77" s="17" t="s">
         <v>52</v>
@@ -2039,13 +3475,13 @@
       <c r="E77" s="13"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="6"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="19"/>
     </row>
-    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="6"/>
       <c r="D79" s="15" t="s">
         <v>9</v>
@@ -2053,7 +3489,7 @@
       <c r="E79" s="13"/>
       <c r="F79" s="19"/>
     </row>
-    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="6"/>
       <c r="D80" s="15" t="s">
         <v>61</v>
@@ -2061,39 +3497,39 @@
       <c r="E80" s="13"/>
       <c r="F80" s="19"/>
     </row>
-    <row r="81" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D81" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="19"/>
     </row>
-    <row r="82" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D82" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="19"/>
     </row>
-    <row r="83" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D83" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="19"/>
     </row>
-    <row r="84" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D84" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="19"/>
     </row>
-    <row r="85" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D86" s="7" t="s">
         <v>21</v>
       </c>
@@ -2104,7 +3540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D87" s="7" t="s">
         <v>62</v>
       </c>
@@ -2115,7 +3551,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D88" s="2" t="s">
         <v>26</v>
       </c>
@@ -2124,7 +3560,7 @@
       </c>
       <c r="F88" s="21"/>
     </row>
-    <row r="89" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D89" s="2" t="s">
         <v>22</v>
       </c>
@@ -2133,7 +3569,7 @@
       </c>
       <c r="F89" s="21"/>
     </row>
-    <row r="90" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D90" s="2" t="s">
         <v>55</v>
       </c>
@@ -2142,17 +3578,7 @@
       </c>
       <c r="F90" s="22"/>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F91" s="19"/>
-    </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F92" s="19"/>
-    </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F93" s="19"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>